--- a/16-17Italy.xlsx
+++ b/16-17Italy.xlsx
@@ -1,23 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="意甲" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>尤文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉齐奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚特兰大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热那亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨索洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切沃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩波利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗托内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴勒莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩斯卡拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +139,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +174,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,12 +478,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B1:D20">
+    <sortCondition ref="D1:D20"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
